--- a/GDB3_sub1.xlsx
+++ b/GDB3_sub1.xlsx
@@ -387,5257 +387,5257 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1675.093200174363</v>
+        <v>2040.111584367592</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>523.0891213497076</v>
+        <v>504.197877668396</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>695.5563858464004</v>
+        <v>789.1578648684975</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>440.5791500482444</v>
+        <v>360.5716135670446</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>691.9797015730203</v>
+        <v>764.7935220299402</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>703.4532925451559</v>
+        <v>659.1815284183364</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>388.0822664000164</v>
+        <v>538.365168788</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>6774.863953469343</v>
+        <v>15125.86014527738</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>31659.84837043418</v>
+        <v>30846.23680930977</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>460.962282389488</v>
+        <v>376.2350426481516</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>849.8989894462325</v>
+        <v>764.9868412030817</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>936.3353944834965</v>
+        <v>796.8470480932937</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>661.9346403763699</v>
+        <v>680.1696864116725</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>945.9683534579775</v>
+        <v>1005.278372594887</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>372.0492578282794</v>
+        <v>382.6828238328829</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>730.3944064079539</v>
+        <v>777.1234369543005</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>417.6021576278347</v>
+        <v>392.7821818834903</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>494.0151357707941</v>
+        <v>536.1137918247606</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>699.1142583894647</v>
+        <v>876.3843368681119</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>677.0660633296828</v>
+        <v>1484.352506718655</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>657.4705110852216</v>
+        <v>763.2929286790819</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>373.2345171061186</v>
+        <v>368.3817609931484</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>702.5724509214458</v>
+        <v>737.3964621040413</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>965.241837508889</v>
+        <v>1030.420871085203</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>355.3376320131602</v>
+        <v>317.6771078205901</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>690.9982317344015</v>
+        <v>776.3747243070574</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>693.1780958628423</v>
+        <v>735.7686716199504</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>32114.48107668273</v>
+        <v>31700.03759487976</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>740.7617105582422</v>
+        <v>746.6355156370278</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>276.4394660887676</v>
+        <v>261.5865248488128</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>831.4647389562648</v>
+        <v>753.8633994478051</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>795.1523089064017</v>
+        <v>710.0261422202595</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>943.6626948937064</v>
+        <v>1051.649718866634</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>395.6707810895565</v>
+        <v>387.6843228027267</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>555.3860606587212</v>
+        <v>525.5472432619846</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>360.0803096477945</v>
+        <v>376.3719516606948</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1120.330786609211</v>
+        <v>1085.49579014059</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1037.50137034869</v>
+        <v>1225.483781744452</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>636.574585476453</v>
+        <v>686.8601391336882</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>485.1778340185527</v>
+        <v>481.3461214782736</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>482.6867148420369</v>
+        <v>534.7434354889598</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>490.8154327524657</v>
+        <v>619.464192026302</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>698.6618957976016</v>
+        <v>706.5527635451617</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>474.8250924872872</v>
+        <v>490.0070678667692</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>528.5054627153694</v>
+        <v>408.3115527426813</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>884.595737839521</v>
+        <v>864.3728230819623</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>661.811104947108</v>
+        <v>594.6377509984256</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>617.3781141705398</v>
+        <v>692.7052450077497</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1011.017408560247</v>
+        <v>1009.779131475168</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2149.592715525002</v>
+        <v>2477.707879084185</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>890.4167566013019</v>
+        <v>741.2455269834662</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>879.2050303866394</v>
+        <v>881.4961099003317</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>544.9383275482813</v>
+        <v>655.8187762096213</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>665.3906542116546</v>
+        <v>1255.371386114496</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>459.8330308024363</v>
+        <v>431.3234180349793</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>494.5137029041985</v>
+        <v>574.8373780043374</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>965.5399563237056</v>
+        <v>1064.014761111428</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>411.0009559060448</v>
+        <v>373.0815030988972</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1097.013797477</v>
+        <v>812.3068816499178</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>419.6870115047162</v>
+        <v>369.2760182310477</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>666.9789553279032</v>
+        <v>733.9878169110085</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>754.7128539866121</v>
+        <v>769.6872307285531</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>468.0660326647721</v>
+        <v>462.2130918759667</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1359.692530343357</v>
+        <v>1363.549181084865</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>1325.435014247368</v>
+        <v>1317.552404876852</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>1342.030668342849</v>
+        <v>1317.880741791357</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>22497.44465991405</v>
+        <v>22624.43042473462</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>539.5551841888902</v>
+        <v>638.893461180927</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>435.8237644699389</v>
+        <v>382.5334121284226</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>1353.225623053338</v>
+        <v>1342.615047805308</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>348.6716366282908</v>
+        <v>314.8904832358737</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>844.1741751256718</v>
+        <v>892.6284766722325</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>379.4534987797461</v>
+        <v>375.3668602491479</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>820.461649597601</v>
+        <v>867.7647240350216</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>459.1973653742074</v>
+        <v>404.1807065811919</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>407.8993089920984</v>
+        <v>383.3866934879595</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>652.8979708428582</v>
+        <v>595.3793220853038</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>554.085368833305</v>
+        <v>608.5283557577806</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>738.4519577102677</v>
+        <v>735.9908902521381</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>761.798441773463</v>
+        <v>714.4362767239097</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>569.6324233755374</v>
+        <v>668.4703758675962</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>355.0524781878067</v>
+        <v>366.616188842205</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>261.7476622707001</v>
+        <v>281.4326002492449</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>923.4926487408866</v>
+        <v>1201.045037082938</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>708.7409506499841</v>
+        <v>760.621275711832</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>506.4701994073851</v>
+        <v>399.6152167607776</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>1480.818973862826</v>
+        <v>1400.847670974548</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>492.0902262333295</v>
+        <v>596.7938347241677</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>379.246495011449</v>
+        <v>317.4925989467874</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>498.9631732540668</v>
+        <v>595.0637491614979</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>349.2650553929171</v>
+        <v>387.4781924462383</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>1738.660465121394</v>
+        <v>2113.863535890137</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>450.9523888135361</v>
+        <v>432.7144886289624</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>17327.32575533722</v>
+        <v>11869.45703568205</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>30697.94001425961</v>
+        <v>31017.68861163696</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>987.7386445589322</v>
+        <v>1454.248819675485</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>668.2397682569029</v>
+        <v>556.7006753301323</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>17225.26165629701</v>
+        <v>11823.65354411804</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>691.1134305343704</v>
+        <v>729.4639997578186</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>468.1085098872703</v>
+        <v>369.4467502683304</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>696.0728765590575</v>
+        <v>670.6819628433693</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>4009.529913853085</v>
+        <v>3353.852788293256</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>389.4566816476305</v>
+        <v>409.7737322987413</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>399.8172170194093</v>
+        <v>362.8094632959383</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>601.3843484868918</v>
+        <v>575.2675975321134</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>581.4508371615211</v>
+        <v>493.5586358525754</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>482.8862510849482</v>
+        <v>575.0996384205251</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>686.7586229366698</v>
+        <v>673.3717965566318</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>585.6825903249231</v>
+        <v>588.9992448050474</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>1890.549854789936</v>
+        <v>2223.245798789982</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>471.7963323232913</v>
+        <v>527.7324900151091</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>381.0833487735763</v>
+        <v>374.3134165486302</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>458.3149214060965</v>
+        <v>461.7950417710751</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>668.6782584040828</v>
+        <v>645.840316521426</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>823.9332015184604</v>
+        <v>758.4688541241206</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>401.1496356866912</v>
+        <v>461.5624175464379</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>530.1592252582547</v>
+        <v>520.8211764613116</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>798.2071064986234</v>
+        <v>1091.977942533439</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>1297.661819414825</v>
+        <v>1078.228607265379</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>661.4245077170359</v>
+        <v>719.1122867157969</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>476.0691327176583</v>
+        <v>548.1898602873779</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>387.8313824331872</v>
+        <v>386.9078209566194</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>977.7815045231027</v>
+        <v>960.1694021178745</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>430.006242370344</v>
+        <v>474.9839142432011</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>383.7936330710046</v>
+        <v>367.5596863848197</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>699.287371921827</v>
+        <v>694.4986371995039</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>679.8940830574007</v>
+        <v>568.9468753237126</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>401.0929526970944</v>
+        <v>392.0688227193076</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>392.0068848360768</v>
+        <v>377.0758236711588</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>886.3282159289713</v>
+        <v>978.0537416009947</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1092.912710084471</v>
+        <v>974.627394896911</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>990.387530797465</v>
+        <v>1094.705993881896</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>594.3990354606835</v>
+        <v>530.5564090240852</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>697.3540888613325</v>
+        <v>556.8286621215148</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>397.2604182256082</v>
+        <v>454.1793321157991</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>970.0350461408763</v>
+        <v>991.1156102539924</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>672.5803435875256</v>
+        <v>767.9890347580916</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>570.0396298924926</v>
+        <v>670.3290269964211</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>841.7607778187701</v>
+        <v>754.6333901500085</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>3222.550502977213</v>
+        <v>5680.111192972824</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>483.6257113025351</v>
+        <v>612.8966123105224</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>414.8074056414796</v>
+        <v>385.0754060715377</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1525.845509299697</v>
+        <v>1462.90217095613</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>456.8339648127707</v>
+        <v>490.0304631405892</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>561.6041173427461</v>
+        <v>776.5578410877761</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>496.3340408952249</v>
+        <v>546.7236066671267</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>1061.967241302</v>
+        <v>901.5496083794674</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>372.5424055159805</v>
+        <v>382.667675989733</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>469.9343634400155</v>
+        <v>483.4993344464048</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>680.3850800190713</v>
+        <v>576.0015814650648</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>447.6397392017327</v>
+        <v>399.7580885395563</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>32414.38373572964</v>
+        <v>32663.27181611853</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>1360.598222434306</v>
+        <v>1315.612047914668</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>727.7283696071581</v>
+        <v>741.8780339335976</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>472.4386437680323</v>
+        <v>479.4983056701151</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>412.6380423464073</v>
+        <v>422.3960835499319</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>1019.28444935109</v>
+        <v>1403.878662406026</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>493.8517265182068</v>
+        <v>562.3805536640616</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1059.468914104209</v>
+        <v>1205.720704048235</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>494.9171987264636</v>
+        <v>575.2977989970199</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>660.6136370734331</v>
+        <v>770.3388072713228</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>791.4791885551552</v>
+        <v>895.1677224163396</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>1063.146758958168</v>
+        <v>901.2517898075482</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>622.9434435155672</v>
+        <v>631.6993602405923</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>274.9039268433382</v>
+        <v>314.4111746630066</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>859.3669541773842</v>
+        <v>779.7596821478772</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>403.7734202928468</v>
+        <v>380.9758430286137</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>703.626478581235</v>
+        <v>789.6847045875662</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>1079.199781190099</v>
+        <v>472.2826540187255</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>1638.542791267639</v>
+        <v>2087.862836309535</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>506.5007390575268</v>
+        <v>404.0520466428006</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>457.3029917874962</v>
+        <v>468.7566946831772</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>493.4255339622317</v>
+        <v>477.8183668085533</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>699.6362676149918</v>
+        <v>654.0536216532626</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>816.4016767601236</v>
+        <v>899.3464026785183</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>833.5206903063603</v>
+        <v>755.4174428810487</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>674.3397769699878</v>
+        <v>678.6605963395605</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>561.0549295800571</v>
+        <v>566.2402666748574</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>547.5328725964124</v>
+        <v>591.9007951524376</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>953.4036701320746</v>
+        <v>808.3558396042882</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>996.2323121724396</v>
+        <v>1056.30287900051</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>234.2302194278499</v>
+        <v>251.695862425205</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1750.241120861328</v>
+        <v>904.5555996068988</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>746.535831627609</v>
+        <v>840.2226417889992</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>806.8367701421625</v>
+        <v>1187.084456525242</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>703.7268327881656</v>
+        <v>669.2393057865053</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>857.5149091336996</v>
+        <v>822.325264418636</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>638.2500593924499</v>
+        <v>1425.604005822796</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>473.9996168036849</v>
+        <v>436.1164418239865</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>658.0969311009015</v>
+        <v>758.2450982861302</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>642.8064264384399</v>
+        <v>630.2684560315153</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>538.8244993124414</v>
+        <v>504.0429297634319</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1313.043283953085</v>
+        <v>1313.918026751391</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>382.2574700412819</v>
+        <v>376.9456166797049</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>691.8180574306454</v>
+        <v>435.0852567310271</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>336.0735730250855</v>
+        <v>407.9494988657863</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>413.6650387521346</v>
+        <v>397.9016539066219</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>653.6027798115615</v>
+        <v>590.6915911812844</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>406.8988342418623</v>
+        <v>505.1467312595458</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>463.2501695417821</v>
+        <v>454.9311735723682</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>1348.164537303327</v>
+        <v>1346.389940137527</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>585.9797752665814</v>
+        <v>1317.682836202741</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>360.0722733528102</v>
+        <v>371.9394489268074</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>473.9249548833536</v>
+        <v>525.1633744137459</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>1035.890246748054</v>
+        <v>876.8080123255326</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>628.7713081421897</v>
+        <v>593.3929880507202</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>667.6793550703682</v>
+        <v>575.7599844215588</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>418.7342801890581</v>
+        <v>424.8151609152848</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>707.7253374767078</v>
+        <v>664.3494360670472</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>490.0606759874191</v>
+        <v>419.5102837114458</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>708.0574614835919</v>
+        <v>614.1129452885714</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>834.3387023589898</v>
+        <v>950.5572563385559</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>703.6166506055704</v>
+        <v>728.9528112643929</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>749.8438849671297</v>
+        <v>805.6698941426963</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>671.361057945915</v>
+        <v>761.1470603808333</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>761.5081053472995</v>
+        <v>809.6524072718667</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>765.2240847951117</v>
+        <v>655.9676399093521</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>405.5906622978716</v>
+        <v>364.276511752404</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>476.7660402359115</v>
+        <v>488.3590462828352</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>889.4585345915453</v>
+        <v>1007.656939677287</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>430.7236554902301</v>
+        <v>361.0625462818725</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>962.8082216012134</v>
+        <v>1045.526117775679</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>466.6976619579515</v>
+        <v>458.9690861489771</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>668.804532117651</v>
+        <v>849.5556607740323</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>679.546278332083</v>
+        <v>783.510337373583</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>16756.70354885243</v>
+        <v>19864.12390397874</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>473.9562613317671</v>
+        <v>486.4792556399167</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>1032.674140474465</v>
+        <v>8985.782866994372</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>283.1914122445258</v>
+        <v>371.5941020840755</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>505.5222255980607</v>
+        <v>527.5215294437218</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>807.8762053880895</v>
+        <v>9263.51963416049</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>495.4814949172699</v>
+        <v>540.7733300977385</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>372.4286557961075</v>
+        <v>359.0912409670275</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>843.022377818104</v>
+        <v>907.8114415002128</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>716.3922776387442</v>
+        <v>668.6144654334221</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>410.0919638858101</v>
+        <v>379.0682424941367</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>1761.912071079334</v>
+        <v>904.9119101973017</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>395.6707810895565</v>
+        <v>387.6843228027267</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>1364.91287523506</v>
+        <v>1364.885164000532</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>717.6254473721862</v>
+        <v>638.3807015940238</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>440.0223021733515</v>
+        <v>470.8959482158467</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>380.1122776107288</v>
+        <v>360.2668583696304</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>481.8636069934906</v>
+        <v>574.9825270004523</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>252.6361150996441</v>
+        <v>250.8889381720792</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>560.7707008163347</v>
+        <v>489.9103141319166</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>474.0252057541538</v>
+        <v>409.1490168535875</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>591.7588258394261</v>
+        <v>592.4481245981938</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>478.4019987740792</v>
+        <v>528.142743578686</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>892.263446623632</v>
+        <v>823.9738419355892</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>606.495706562813</v>
+        <v>800.0218703030357</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>442.1674692938375</v>
+        <v>432.9581841586987</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>624.0864161352685</v>
+        <v>535.7478746689226</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>457.559999152727</v>
+        <v>474.9624165085435</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>22249.97856727975</v>
+        <v>22760.92648209496</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>895.0828961395991</v>
+        <v>876.2801257998163</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>580.7633180011524</v>
+        <v>570.9946070221193</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>468.8975109274901</v>
+        <v>553.3482995839928</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>626.9406012716684</v>
+        <v>643.042643853703</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>448.0389153055273</v>
+        <v>709.2320005435622</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>448.6218105309226</v>
+        <v>493.8232709408624</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>526.7703669743122</v>
+        <v>415.1659792960129</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>744.6357495124154</v>
+        <v>713.4115743088338</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>430.1840012093443</v>
+        <v>479.3501439081082</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>670.371120379015</v>
+        <v>632.6361177611137</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>288.3832557615315</v>
+        <v>305.2236560279051</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1017.873817578378</v>
+        <v>1160.522443034286</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>967.2566294490057</v>
+        <v>1014.280284072326</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>574.9011273310001</v>
+        <v>605.9057797956109</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>431.5764558440576</v>
+        <v>470.7617613567307</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>475.261355090345</v>
+        <v>543.5180993869301</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>348.898392647916</v>
+        <v>619.5355131714788</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>1573.124959373157</v>
+        <v>1528.150896435474</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1299.75284924982</v>
+        <v>1311.085998364408</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>772.4810434578532</v>
+        <v>782.8397135780481</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>402.5498397400384</v>
+        <v>382.2408326625758</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>1671.833948115348</v>
+        <v>2073.344330858373</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>399.9416745927693</v>
+        <v>382.4875664804608</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>779.8521220134938</v>
+        <v>714.5424231258049</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>697.4503346050498</v>
+        <v>794.6299134452703</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1312.918888503436</v>
+        <v>1266.727253852854</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>644.635045509592</v>
+        <v>620.5897218217718</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>648.2172475550368</v>
+        <v>559.9301872613571</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>621.6154070296957</v>
+        <v>617.4486257561589</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>280.1581306732061</v>
+        <v>298.1323593317969</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>517.2715378318935</v>
+        <v>572.098031817186</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>562.6517731247734</v>
+        <v>578.97348314095</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>702.0727383388963</v>
+        <v>578.7070471068132</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>412.9016149028936</v>
+        <v>381.7734619613219</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>383.578853427392</v>
+        <v>388.638926362918</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>472.3321422334483</v>
+        <v>482.3542798185449</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>422.9248167610166</v>
+        <v>372.5010805657163</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>28321.54850000245</v>
+        <v>31552.01458530884</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>349.4001693843707</v>
+        <v>292.2651648031434</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>793.7439438428717</v>
+        <v>773.829739714918</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>1336.976600677043</v>
+        <v>1346.629756027956</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>526.9710438849136</v>
+        <v>659.3502167360335</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>1495.409113722198</v>
+        <v>1395.17855439191</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>1346.181921006239</v>
+        <v>1328.796056758185</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>831.4647389562648</v>
+        <v>753.8633994478051</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>665.7983300492793</v>
+        <v>566.356376531344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>670.651571600083</v>
+        <v>759.3154949344541</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>383.578853427392</v>
+        <v>388.638926362918</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>724.2617061013992</v>
+        <v>743.7721867170396</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>680.9294708325792</v>
+        <v>608.2486364125419</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1613.073895523419</v>
+        <v>1636.747991108194</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>482.6867148420369</v>
+        <v>570.4747087552024</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>480.2688587219903</v>
+        <v>534.3158480891658</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>756.6548766815423</v>
+        <v>746.7318323539004</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>906.9831929664035</v>
+        <v>932.5941307980825</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>625.367236514317</v>
+        <v>618.7418910913692</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>370.9284724904269</v>
+        <v>363.3489577334217</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>1351.353835420045</v>
+        <v>1349.163129980674</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>621.1863863282039</v>
+        <v>641.3756938881698</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>398.1591242689974</v>
+        <v>411.9919906737326</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>250.9569475938119</v>
+        <v>248.8053387033243</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>470.7615267237045</v>
+        <v>593.2783046097046</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>874.5582708165089</v>
+        <v>853.7679874587543</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>964.0438301170547</v>
+        <v>992.9165400254614</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>433.5350726070211</v>
+        <v>459.8262009528098</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>647.4909269210945</v>
+        <v>671.5511067143763</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1358.259246808481</v>
+        <v>1364.055895115458</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>568.8091250518452</v>
+        <v>588.4767756917058</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>473.7140118299225</v>
+        <v>483.9047544081999</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>665.7983300492793</v>
+        <v>572.3242018182412</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>1399.90633047087</v>
+        <v>1350.83055148325</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>456.727883530328</v>
+        <v>402.1119571919674</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>392.3061484391367</v>
+        <v>395.1642618866607</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>562.6517731247734</v>
+        <v>575.823560674228</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>568.8086663923893</v>
+        <v>459.9654035937631</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>728.3043228302867</v>
+        <v>719.6748471320423</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>31672.72698192522</v>
+        <v>30846.23680930977</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>925.4710190677609</v>
+        <v>825.5143185329443</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>562.8258840021856</v>
+        <v>563.9035582016807</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>17092.84894078699</v>
+        <v>18123.93879700935</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>821.3639363244124</v>
+        <v>758.0380339935147</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>476.5697909566715</v>
+        <v>589.7643569677963</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>367.3336405047089</v>
+        <v>444.4884230266738</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>450.7439890082258</v>
+        <v>490.1163769990501</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>749.8655683256427</v>
+        <v>708.4727166569048</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>1278.735318932972</v>
+        <v>1344.338599614154</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>905.7947592583646</v>
+        <v>975.4940525923108</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>725.1328126087266</v>
+        <v>470.5105474209819</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>31157.78525076194</v>
+        <v>31057.15271067837</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>1422.966900017062</v>
+        <v>1380.212560168889</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>1225.808342652427</v>
+        <v>1295.871159596483</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>469.3348423193466</v>
+        <v>486.8244236688727</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>991.0167455766434</v>
+        <v>1094.705993881896</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>474.8015831439904</v>
+        <v>436.274802860579</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>350.385922680598</v>
+        <v>370.268062175083</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>737.1832296260399</v>
+        <v>792.2976352835876</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>824.9329025072009</v>
+        <v>1256.94118560809</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>284.7368092641664</v>
+        <v>340.2590336009835</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>700.7553936441154</v>
+        <v>617.7765076108453</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>730.0473551608936</v>
+        <v>703.8261812726412</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>509.4591135144644</v>
+        <v>522.9300953471974</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>474.1800152940083</v>
+        <v>467.9651562182585</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>951.4655418995476</v>
+        <v>888.6987187791369</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>344.2298967988417</v>
+        <v>322.0655510001433</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>601.2082246446964</v>
+        <v>554.4947583632429</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>1008.591449557301</v>
+        <v>1018.892072263968</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>775.8547595806308</v>
+        <v>725.9310479331461</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>401.5276050184578</v>
+        <v>378.6844571863396</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>992.5348264353072</v>
+        <v>1035.985335120542</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>1111.481477647965</v>
+        <v>944.6997288989252</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>1341.110203308522</v>
+        <v>1325.661772422377</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>447.0309183843268</v>
+        <v>428.6713266166142</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>756.9736932634387</v>
+        <v>678.7372962928665</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>378.7089150694002</v>
+        <v>374.3134165486302</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>986.8795304586776</v>
+        <v>966.6497278637501</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>965.2780631644059</v>
+        <v>1045.310464089423</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>633.5956447940807</v>
+        <v>671.6813324381695</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>252.6361150996441</v>
+        <v>250.8889381720792</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>395.6800436259676</v>
+        <v>372.2061313740425</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>839.8466073627164</v>
+        <v>933.3624874221954</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>510.681192716621</v>
+        <v>486.5349216501699</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>738.179011302503</v>
+        <v>762.7121212609367</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>439.8600052742047</v>
+        <v>364.3981590594366</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>1111.442379753511</v>
+        <v>1034.386562523991</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>666.1723013250163</v>
+        <v>751.1313447361186</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>441.4955375138045</v>
+        <v>429.1007311982198</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>442.9192236787171</v>
+        <v>498.8597358041994</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>618.8628622492859</v>
+        <v>496.0204165337987</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>262.6217487114856</v>
+        <v>267.4694531847507</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>534.2152108939576</v>
+        <v>408.6889415833439</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>663.4225628749762</v>
+        <v>636.6566339101142</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>426.8252828746706</v>
+        <v>354.7192522368959</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>704.6682570281247</v>
+        <v>861.7676863596131</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>829.6251358853186</v>
+        <v>908.8588225506483</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>749.8723509717584</v>
+        <v>727.0689897403228</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>676.8216149223961</v>
+        <v>704.2943476516641</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>6169.31037539111</v>
+        <v>8703.503970354534</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>683.3265224110085</v>
+        <v>698.5605505750634</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>1597.684740510397</v>
+        <v>2033.714719541334</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>670.7786792785779</v>
+        <v>581.5437311782766</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>699.0281473373907</v>
+        <v>450.9729299880514</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>757.4488140675554</v>
+        <v>739.5651388453405</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>1530.392614087082</v>
+        <v>824.9491045500188</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>387.6276778426392</v>
+        <v>392.3142602488895</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>758.7589249015444</v>
+        <v>501.3446200496566</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>513.0255930338343</v>
+        <v>576.9563076999081</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>1382.490641393725</v>
+        <v>1366.747750468464</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>320.3450416691538</v>
+        <v>361.7158497077662</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>274.7099029494598</v>
+        <v>301.5575586065372</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>690.5085017166998</v>
+        <v>734.4829612760769</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>261.2483619264452</v>
+        <v>256.4296458188502</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>673.8561963238263</v>
+        <v>576.7702740647536</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>559.141321424297</v>
+        <v>510.3408113396069</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>650.235353400839</v>
+        <v>584.592229749569</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>1001.638389118371</v>
+        <v>1087.422589268126</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>1018.587626091226</v>
+        <v>1096.465616596732</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>572.0449545932082</v>
+        <v>1244.522586115437</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>403.5925096911653</v>
+        <v>370.4249208702702</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>1352.757611218554</v>
+        <v>1305.661312173699</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>663.9673635448145</v>
+        <v>690.1941156226541</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>692.2742105637733</v>
+        <v>730.4138653713877</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>605.7540810786522</v>
+        <v>632.6653674279399</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>432.7206509587103</v>
+        <v>379.8137332615407</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>727.7500639244014</v>
+        <v>701.7917496942637</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>1311.362312145631</v>
+        <v>1323.2078866117</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>412.2065466304946</v>
+        <v>425.4512141527329</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>669.2259224386755</v>
+        <v>765.8010697567651</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>655.009731227784</v>
+        <v>744.3102159412643</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>772.1682109045506</v>
+        <v>928.8520077073179</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>1702.433234706323</v>
+        <v>1439.245317660793</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>564.9100194406863</v>
+        <v>544.3671693569756</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>597.9841235041347</v>
+        <v>496.3899581132897</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>426.1466818306894</v>
+        <v>431.4539441710206</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>333.0204767192561</v>
+        <v>323.5550771812643</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>1359.765174634406</v>
+        <v>1361.378612276375</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>603.7644997305852</v>
+        <v>618.1118173403213</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>664.3133510772316</v>
+        <v>579.1688561844122</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>656.4285402273208</v>
+        <v>560.0589991264397</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>578.203426952819</v>
+        <v>589.0105260373657</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>704.0887850932452</v>
+        <v>616.2310146038678</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>682.5906857267566</v>
+        <v>572.5774953936522</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>705.1084495412689</v>
+        <v>731.727556816394</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>1009.646230163289</v>
+        <v>984.8925079886462</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>249.8150541498684</v>
+        <v>267.4946912028591</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>682.614991297707</v>
+        <v>649.6345977774893</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>707.0353201351315</v>
+        <v>612.1269772892099</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>681.1215450798882</v>
+        <v>693.2995315862655</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>566.5770994136661</v>
+        <v>556.4656068380663</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>866.2467187016294</v>
+        <v>940.3773809978449</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>30871.2464102369</v>
+        <v>31029.90668971524</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>644.9510180212237</v>
+        <v>649.953055783561</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>413.8983021422142</v>
+        <v>369.8244715402219</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>248.2437397385243</v>
+        <v>249.3124354148482</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>690.0673574537176</v>
+        <v>850.389635934918</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>522.1688047566638</v>
+        <v>546.9053625680301</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>476.5111291466821</v>
+        <v>836.2980860515612</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>17566.53589234646</v>
+        <v>18066.98126698724</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>591.7429265033542</v>
+        <v>573.2295281680161</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>4148.801942833494</v>
+        <v>3479.869337649352</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>480.0704040270364</v>
+        <v>535.6558997697355</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>695.9572928191549</v>
+        <v>611.6301585602467</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>962.6337602383346</v>
+        <v>1199.698075026132</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>755.2206874742997</v>
+        <v>738.0313695459365</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>562.1279257746005</v>
+        <v>586.5267827878847</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>361.4952508138734</v>
+        <v>407.2784427663696</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>571.648847865524</v>
+        <v>531.5375924333939</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>474.3554235064724</v>
+        <v>482.114770395463</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>962.8082216012134</v>
+        <v>1051.630352163721</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>353.1066036478801</v>
+        <v>317.8331867848641</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>411.6864574518046</v>
+        <v>369.9971210039067</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>414.1457125337693</v>
+        <v>383.685514223237</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>343.1723416662575</v>
+        <v>394.2068535775936</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>725.0117315084256</v>
+        <v>691.9489536392879</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>725.9853473485672</v>
+        <v>779.3581300429929</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>464.9616071550533</v>
+        <v>459.0337451977192</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>650.5761771127841</v>
+        <v>674.4339273615597</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>508.498638722764</v>
+        <v>571.8520738575093</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>659.9443840137554</v>
+        <v>570.8184192673177</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>530.2136444485559</v>
+        <v>682.0564461065798</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>971.7047576819384</v>
+        <v>1065.397679118182</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>868.1030421632333</v>
+        <v>882.9783714028623</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>1356.591610724358</v>
+        <v>1362.299407527029</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>1359.545287846405</v>
+        <v>1267.550584187488</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>500.9094689078231</v>
+        <v>570.7582790292507</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>585.064456807988</v>
+        <v>641.2241420325696</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>384.2330261169714</v>
+        <v>392.7892691151008</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>340.3877917641628</v>
+        <v>322.2253921327331</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>1476.897971808435</v>
+        <v>1376.469955383408</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>605.6381155410793</v>
+        <v>616.350845552913</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>685.967512394656</v>
+        <v>752.1544422362344</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>471.1079463938038</v>
+        <v>480.7617453376236</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>494.9198292828518</v>
+        <v>545.678686037885</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>626.053789166893</v>
+        <v>427.4495726694827</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>488.5659931615704</v>
+        <v>617.3079924378313</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>732.0385868603917</v>
+        <v>621.1979266837455</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>675.6623845629347</v>
+        <v>615.2010892202284</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>254.2612566252201</v>
+        <v>271.2437594311288</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>826.9248645734201</v>
+        <v>734.711745516864</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>945.3421014298615</v>
+        <v>885.7211406227356</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>834.0782787406002</v>
+        <v>879.3183912340544</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>428.9318100303052</v>
+        <v>394.1314311155548</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>698.8752761371768</v>
+        <v>844.9526151674506</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>982.0850587899241</v>
+        <v>1581.765194884993</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>582.2399591120317</v>
+        <v>586.3731644174344</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>709.2176395327153</v>
+        <v>755.2158698143137</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>722.3450190384101</v>
+        <v>661.4117830682011</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>661.8086882826855</v>
+        <v>572.0465420924145</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>717.0898618613586</v>
+        <v>718.2911562341326</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>6530.249036479272</v>
+        <v>7482.508426214863</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>872.8709369368032</v>
+        <v>926.6620414302406</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>12608.14896813184</v>
+        <v>6779.535088319438</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>712.9940313783469</v>
+        <v>750.769493406615</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>348.5688057483646</v>
+        <v>316.9748108137905</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>415.7076512829115</v>
+        <v>385.0754060715377</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>490.939475965978</v>
+        <v>501.8211857153494</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>434.5205477587025</v>
+        <v>389.1739583914036</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>1530.392614087082</v>
+        <v>824.9491045500188</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>568.1085960980463</v>
+        <v>536.9237415118668</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>493.4085483743669</v>
+        <v>557.3387138832944</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>1356.121450546073</v>
+        <v>1341.705648675589</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>391.9632236470599</v>
+        <v>400.9783556478511</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>5438.785882788515</v>
+        <v>9102.729247331974</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>544.9812210193975</v>
+        <v>631.0432053870715</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>403.4587110824903</v>
+        <v>380.9758430286137</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>711.0686430417418</v>
+        <v>624.1783990015381</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>1308.402671517984</v>
+        <v>1266.411661322466</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>426.7935279004535</v>
+        <v>384.3220413700356</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>443.9855371514862</v>
+        <v>635.499760486396</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>665.5940828288954</v>
+        <v>755.8285649384577</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>27764.01800522807</v>
+        <v>30407.9290884648</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>400.8104909238504</v>
+        <v>388.5500174576648</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>1337.227364137666</v>
+        <v>1348.011988021356</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>393.9309971865553</v>
+        <v>462.7090096497664</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>32905.19236952311</v>
+        <v>31628.84982316444</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>352.3175679433262</v>
+        <v>352.0170222532769</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>480.4090608821105</v>
+        <v>618.2940527138538</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>791.1890111222558</v>
+        <v>686.6023788790642</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>902.2115738132759</v>
+        <v>848.5087745534148</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>566.8870363490554</v>
+        <v>578.2868535051321</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>479.9599187222807</v>
+        <v>457.586171690916</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>665.2091679818629</v>
+        <v>540.37695554016</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>495.6468557669789</v>
+        <v>428.0293028560025</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>639.7726087395823</v>
+        <v>639.3664860909214</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>291.1480736075438</v>
+        <v>306.3791011359526</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1935.567773682397</v>
+        <v>1570.516738407213</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>778.7402960782675</v>
+        <v>688.0102751340098</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>813.1677641444417</v>
+        <v>755.7027399924915</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>733.5288813062659</v>
+        <v>770.9974487093491</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>391.9939330615516</v>
+        <v>394.3520061311574</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>684.5356472870069</v>
+        <v>659.8507790581264</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>422.7235053382574</v>
+        <v>375.5226979387861</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>561.8253131846026</v>
+        <v>631.2069960338788</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>474.4619017711931</v>
+        <v>538.9678801356307</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>820.1731988157045</v>
+        <v>724.073246776652</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>698.2215960698111</v>
+        <v>698.8386145327438</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>527.9667748980312</v>
+        <v>824.4263767156186</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>441.854226698594</v>
+        <v>486.2416004734845</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>655.248642786048</v>
+        <v>554.6452332322987</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>509.0868739834392</v>
+        <v>490.7004428308545</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>720.4686795367559</v>
+        <v>913.2004442279148</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>727.4059857645336</v>
+        <v>703.1428779418527</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>556.2096298386263</v>
+        <v>539.4887450345934</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>584.5105560745936</v>
+        <v>591.339455590012</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>597.7395482984427</v>
+        <v>664.2755548970147</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1179.614818555913</v>
+        <v>912.5896597853333</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>673.250855981159</v>
+        <v>767.9890347580916</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>566.7556630353176</v>
+        <v>558.5607249078332</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>778.7097052064906</v>
+        <v>771.1312401885316</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>470.8177422796099</v>
+        <v>462.2130918759667</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>17024.05062929336</v>
+        <v>19875.65497355001</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>672.6712199992577</v>
+        <v>587.0855753391036</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>1480.980524521911</v>
+        <v>1442.52140296288</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>492.8673263236061</v>
+        <v>634.2566351134868</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>484.0368067335664</v>
+        <v>540.5278972463396</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>422.280648577045</v>
+        <v>439.6327867357441</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>418.7285195046677</v>
+        <v>428.7795508969136</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>274.9039268433382</v>
+        <v>167.3054647263647</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>445.8477434681426</v>
+        <v>402.6205159597304</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>352.9836496038587</v>
+        <v>407.5143591886346</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>850.6322199082134</v>
+        <v>932.7450776685364</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>456.0672092287842</v>
+        <v>383.8622534139824</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>479.6117569290269</v>
+        <v>439.6919681318472</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>508.2480141454553</v>
+        <v>717.4892566262397</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>28188.72827881106</v>
+        <v>31932.78698968246</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>666.4787392597718</v>
+        <v>573.2490385889768</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>268.9600199327432</v>
+        <v>298.1323593317969</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>507.2278177648561</v>
+        <v>561.6313728325193</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>972.670607972219</v>
+        <v>1067.718695788773</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>403.9237903021626</v>
+        <v>369.9971210039067</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>764.0976232951616</v>
+        <v>906.2751938727853</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>804.1000916045242</v>
+        <v>864.4100360259588</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>604.8685819888839</v>
+        <v>575.7457975657658</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>30668.36505039733</v>
+        <v>31607.05231277602</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>846.9267062403213</v>
+        <v>868.5346685094437</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>350.5776487859032</v>
+        <v>280.0352581736994</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>1367.701824917079</v>
+        <v>1367.475693305896</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>869.4596799317648</v>
+        <v>789.1376765882321</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>431.5863024498346</v>
+        <v>475.885252316246</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>763.3369514706792</v>
+        <v>705.9375829991088</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>581.6789883890665</v>
+        <v>590.7483215283884</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>650.699290038344</v>
+        <v>589.448318983947</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>1078.76549609879</v>
+        <v>785.65562558469</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>459.7377248729655</v>
+        <v>478.579119161249</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>659.2502952761636</v>
+        <v>763.5542389169819</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>1008.916374424562</v>
+        <v>960.4785959895754</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>452.9036905607161</v>
+        <v>504.962787372186</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>611.6735421664655</v>
+        <v>604.0116794208908</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>491.2517890138684</v>
+        <v>392.0257500944004</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>455.4717286366123</v>
+        <v>527.0314194250984</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>804.6963465381206</v>
+        <v>1280.348096590899</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>353.5799765116337</v>
+        <v>397.6608994948693</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>665.0444105331406</v>
+        <v>566.356376531344</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>675.2860909933615</v>
+        <v>630.5244845606285</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>432.864672216777</v>
+        <v>458.5357273760925</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>597.2380835228169</v>
+        <v>422.8599868853136</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>1052.895158295463</v>
+        <v>1015.398529876115</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>281.7266938283135</v>
+        <v>333.968269587486</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>863.8902359546164</v>
+        <v>901.3358608178207</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>667.6793550703682</v>
+        <v>575.7599844215588</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>1232.013881854832</v>
+        <v>3055.869252317045</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>916.2310962425416</v>
+        <v>884.1146372846355</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>678.1362813751483</v>
+        <v>777.7867774519168</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>933.2718596847476</v>
+        <v>1033.681635458962</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>2606.466975951882</v>
+        <v>1010.864902883299</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>656.9028325593117</v>
+        <v>764.4313901209418</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>358.8261459960582</v>
+        <v>484.671863341644</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>950.7601654663971</v>
+        <v>1027.643950977917</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>1800.265610957324</v>
+        <v>2012.467883466787</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>358.70794884165</v>
+        <v>371.8012804377203</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>6190.489232910319</v>
+        <v>9286.176356323362</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>759.9457046068271</v>
+        <v>707.0724441995503</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>856.5467179943073</v>
+        <v>765.8182520423034</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>719.0580782994404</v>
+        <v>425.3989299535197</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>735.0921223810104</v>
+        <v>910.4976633048551</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>728.2296321496849</v>
+        <v>732.2501464735751</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>492.1022846727403</v>
+        <v>486.6297337234606</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>400.3017239130084</v>
+        <v>355.2548442417513</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>584.6411868639423</v>
+        <v>502.6085552311265</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>754.4331480734168</v>
+        <v>912.69195250324</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>713.520889721472</v>
+        <v>684.8015694892975</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>1217.425988154695</v>
+        <v>1254.295310693226</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>17453.02671356699</v>
+        <v>18057.76276852597</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>684.5349621798922</v>
+        <v>549.9781641632972</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>870.1578158504981</v>
+        <v>875.8819421007441</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>394.9294341384368</v>
+        <v>366.9303484317044</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>633.984689427684</v>
+        <v>408.052315501729</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>729.277501510073</v>
+        <v>685.6940783882292</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>722.4539564931389</v>
+        <v>740.5429481741664</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>1337.375182396471</v>
+        <v>1346.505908125162</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>801.8263005868192</v>
+        <v>745.8790761280105</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>581.7978637823545</v>
+        <v>584.0490757666585</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>654.8145168194784</v>
+        <v>743.8779763507266</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>629.3306154588354</v>
+        <v>650.1754678379953</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>659.2929409328094</v>
+        <v>748.6966587080502</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>711.9864163096784</v>
+        <v>848.1434664025725</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>445.4829632632058</v>
+        <v>361.007173353156</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>413.2173429044159</v>
+        <v>428.9105473773511</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>428.9908383298838</v>
+        <v>354.4897151033534</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>379.2954415769828</v>
+        <v>375.3668602491479</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>492.2227644479624</v>
+        <v>491.2834559725902</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>688.1223511026044</v>
+        <v>673.3717965566318</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>821.217321965665</v>
+        <v>953.1088944518985</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>1042.583170800751</v>
+        <v>1413.779354225831</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>422.3289831410002</v>
+        <v>355.3119198626612</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>1097.505955204291</v>
+        <v>1198.252921917802</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>545.3388032055418</v>
+        <v>603.0245052320837</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>566.1972638677332</v>
+        <v>576.1145261313158</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>860.1974636414717</v>
+        <v>902.8063965349005</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>727.5317498346683</v>
+        <v>700.4447642200939</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>1080.238081573232</v>
+        <v>1057.9302307101</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>567.4224303682151</v>
+        <v>574.7796111147131</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>670.3554033017055</v>
+        <v>639.2966101373976</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>2005.13081030806</v>
+        <v>2049.268139337566</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>521.8314655261967</v>
+        <v>422.4042561538457</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>387.9851307394416</v>
+        <v>469.9285142243413</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>671.3192913025745</v>
+        <v>581.5437311782766</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>698.1082939494268</v>
+        <v>617.0157129821512</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>690.0993898084149</v>
+        <v>671.452187794906</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>1307.589585604414</v>
+        <v>1311.353038032391</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>379.2954415769828</v>
+        <v>375.3668602491479</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>905.3185619227177</v>
+        <v>355.7734400225604</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>386.8906245187291</v>
+        <v>377.7956433344991</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>476.5171163462663</v>
+        <v>595.5326239725321</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>1489.430847188873</v>
+        <v>1399.490753865564</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>938.2722552429018</v>
+        <v>904.819139965948</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>1339.241810793841</v>
+        <v>798.9307301181676</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>657.9208555932455</v>
+        <v>559.5967125701125</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>1898.146715642329</v>
+        <v>999.9126847774116</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>595.4866956816423</v>
+        <v>728.6741628929298</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>491.4665372486406</v>
+        <v>491.1351517840798</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>722.8709802169894</v>
+        <v>762.9047226502074</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>512.3305319958106</v>
+        <v>420.2533819711078</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>508.498638722764</v>
+        <v>571.8520738575093</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>686.2164204692173</v>
+        <v>605.9281131123374</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>564.662369467165</v>
+        <v>526.4848758341287</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>361.2898862816782</v>
+        <v>376.2953085004664</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>1168.463206130245</v>
+        <v>944.637028857596</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>251.111211451314</v>
+        <v>269.1895930675284</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>946.3741408114465</v>
+        <v>986.3166639158089</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>927.7315186230012</v>
+        <v>876.3475490117153</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>456.4707083685562</v>
+        <v>384.7884479788981</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>592.4145723465518</v>
+        <v>662.2762245558888</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>436.2185074524758</v>
+        <v>382.5334121284226</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>660.2145026757288</v>
+        <v>563.995974375183</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>515.955925758186</v>
+        <v>405.2562019367506</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>1304.537794607381</v>
+        <v>1311.353038032391</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>249.3741462472276</v>
+        <v>246.0579618749201</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>681.7845700728532</v>
+        <v>763.3381376600835</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>586.505530696597</v>
+        <v>597.4345807382012</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>885.9770747084758</v>
+        <v>926.0788707071364</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>346.7910938033435</v>
+        <v>292.8474077381163</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>722.9364315744796</v>
+        <v>868.5339423422602</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>1122.400316220924</v>
+        <v>1459.586293221706</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>1432.810928189894</v>
+        <v>1197.424897569042</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>478.8952152796837</v>
+        <v>524.4965885964095</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>579.7506912736384</v>
+        <v>527.1000223501663</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>735.7676428711653</v>
+        <v>890.7082689375961</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>467.2107507534814</v>
+        <v>542.6143109531113</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>479.1914170427185</v>
+        <v>370.1427967214021</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>248.5268721106297</v>
+        <v>295.7573570895507</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>5417.982825632583</v>
+        <v>5484.800302071779</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>505.8320692934379</v>
+        <v>690.5459761377879</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>962.8082216012134</v>
+        <v>1051.676921913493</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>459.0866441765721</v>
+        <v>514.5832797880117</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>867.5672166371442</v>
+        <v>782.7270924980413</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>744.3122219121375</v>
+        <v>721.4498203744259</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>375.0887528433956</v>
+        <v>380.1174507731643</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>405.0937388311938</v>
+        <v>393.6131122770709</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>3956.645124826724</v>
+        <v>1194.486141398439</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>391.6373750647761</v>
+        <v>384.0914276734634</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>575.8091411724329</v>
+        <v>527.131330998168</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>967.5213217854796</v>
+        <v>994.4679249990107</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>706.854623655797</v>
+        <v>730.1945942980983</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>1642.74962614339</v>
+        <v>2044.594743526238</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>613.1162123915277</v>
+        <v>618.2050564129945</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>668.5559439110402</v>
+        <v>748.9914065087457</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>718.2433529027672</v>
+        <v>782.7986589859036</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>406.02360295649</v>
+        <v>369.5309487372162</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>542.4919143036889</v>
+        <v>506.1302481104245</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>3124.031263619897</v>
+        <v>2081.948917658362</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1056.892415614237</v>
+        <v>1045.160236954544</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>1360.598222434306</v>
+        <v>1315.612047914668</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>406.3216636808364</v>
+        <v>362.4403300065961</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>1596.484064675786</v>
+        <v>1308.51488079013</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>669.0846072989549</v>
+        <v>657.5455783422721</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>1166.048823464302</v>
+        <v>1006.01293724499</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>793.1995208798913</v>
+        <v>668.0603495668331</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>661.1684488323975</v>
+        <v>570.5936585522795</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>930.1545118833194</v>
+        <v>1427.908882642144</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>414.9235034814694</v>
+        <v>378.0951704655079</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>1491.500334036682</v>
+        <v>1446.133989979683</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>678.3612518472128</v>
+        <v>802.5871732093226</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>673.697441217607</v>
+        <v>587.8130505221201</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>18427.46431488132</v>
+        <v>19108.72146370231</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>977.8816042455213</v>
+        <v>970.5063217507385</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>605.0648535820272</v>
+        <v>675.5544653466002</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>833.2170333560144</v>
+        <v>865.4689155900888</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>524.2164833142972</v>
+        <v>390.8247816841982</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>801.6299979506657</v>
+        <v>892.1149104998274</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>616.7664623402954</v>
+        <v>804.9941507100045</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>405.8793791730143</v>
+        <v>645.3003330354809</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>757.1607742696187</v>
+        <v>1111.470187501466</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>648.498453659328</v>
+        <v>437.1060592145701</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>744.4720820525858</v>
+        <v>741.2234194573645</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>951.476266623803</v>
+        <v>836.1871067153326</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>1388.681011712289</v>
+        <v>1300.024892503591</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>5667.457079172302</v>
+        <v>8979.957810894926</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>661.4245077170359</v>
+        <v>751.0289578178505</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>669.0895954190811</v>
+        <v>652.7537987321919</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>399.5135830854931</v>
+        <v>367.704747249413</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>511.276824211733</v>
+        <v>557.5595053295209</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>1176.730064564658</v>
+        <v>1422.582891529385</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>22895.68589741972</v>
+        <v>22623.04708579955</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>885.6390696574186</v>
+        <v>951.2732014045598</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>450.4036138447996</v>
+        <v>489.7754992242214</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>1109.815950139156</v>
+        <v>980.35423997678</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>357.5961424527747</v>
+        <v>373.8288442795717</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>776.031348189142</v>
+        <v>783.2653510937467</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>657.5501190471329</v>
+        <v>532.8711654871856</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>461.2228628825794</v>
+        <v>580.0962354403093</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>600.8176330944565</v>
+        <v>611.6226169008228</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>32082.79009577502</v>
+        <v>24865.1660916917</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>1303.994403663885</v>
+        <v>1311.353038032391</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>441.259090141258</v>
+        <v>504.8634090386483</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>27948.36005588052</v>
+        <v>31181.47308148118</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>1370.66802740337</v>
+        <v>1350.774716643464</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>899.0703288309223</v>
+        <v>844.7818045570068</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>673.8509714138289</v>
+        <v>567.2166847300937</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>523.2991248021287</v>
+        <v>392.9218070779268</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>368.6887582425728</v>
+        <v>381.1663294194782</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>306.8337354717658</v>
+        <v>322.5837437150255</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>351.4753116900441</v>
+        <v>370.268062175083</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>684.7559828097677</v>
+        <v>632.3959425069529</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>1082.31472266776</v>
+        <v>999.6480407478347</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>842.2058725759495</v>
+        <v>763.7975629392164</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>396.4077130026232</v>
+        <v>390.1829966687792</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>832.7603008122562</v>
+        <v>939.2487252746572</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>6323.374123867496</v>
+        <v>4263.416435517731</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>483.9046081844087</v>
+        <v>471.1196651382569</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>721.6986368709274</v>
+        <v>757.9702259567299</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>374.3389743171288</v>
+        <v>420.7511178249887</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>972.6142621342508</v>
+        <v>1196.583880846463</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>397.8085741036627</v>
+        <v>374.9862080673716</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>694.4230369612108</v>
+        <v>679.3329527879993</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>585.4114836529226</v>
+        <v>690.0977243989727</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>31867.39290695359</v>
+        <v>31532.85846115566</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>432.1430677996568</v>
+        <v>470.7617613567307</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>705.9013052566935</v>
+        <v>734.1582572110519</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>838.822068119757</v>
+        <v>716.9034443848963</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>430.5339119922493</v>
+        <v>351.4583990231972</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>1628.553743219735</v>
+        <v>2073.617580409676</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>535.6416482506864</v>
+        <v>409.223419308736</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>697.1005431369824</v>
+        <v>575.2029528999036</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>1329.244746273683</v>
+        <v>1317.284102789966</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>457.0031989391015</v>
+        <v>386.9287066355499</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>727.2429051823138</v>
+        <v>859.991980113494</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>6256.711747962287</v>
+        <v>5455.607526155311</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>345.6721027554312</v>
+        <v>421.2164864970009</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>459.7377248729655</v>
+        <v>478.579119161249</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>672.1439180691635</v>
+        <v>572.3520420394238</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>679.0304967262497</v>
+        <v>946.3223309832986</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>1112.526298058323</v>
+        <v>1179.855740916779</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>495.1462916346717</v>
+        <v>542.3318965235516</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>680.3162927626247</v>
+        <v>649.1172561661479</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>254.2612566252201</v>
+        <v>248.572780680305</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>2900.197143649693</v>
+        <v>2050.696630912711</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>534.5714526629138</v>
+        <v>568.6258738054418</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>945.5789609438824</v>
+        <v>886.3375917355665</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>662.6982204512085</v>
+        <v>630.1468270843388</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>1114.604926290752</v>
+        <v>1028.55830260272</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>1359.692530343357</v>
+        <v>1364.885164000532</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>719.9646651381171</v>
+        <v>477.2600564364832</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>737.3696199626701</v>
+        <v>710.8841646083673</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>235.2134958929416</v>
+        <v>272.6458080399107</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>695.0186245879697</v>
+        <v>955.2827196381178</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>682.566755367175</v>
+        <v>573.655781976701</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>22281.88620920606</v>
+        <v>22760.92648209496</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>647.8374697969381</v>
+        <v>651.0067280955528</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>686.1528716802839</v>
+        <v>770.6927655725001</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>257.5699667868709</v>
+        <v>256.8859438566804</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>1491.713323185135</v>
+        <v>1446.133989979683</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>572.459556881082</v>
+        <v>598.5046737523312</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>478.6834863105356</v>
+        <v>531.4708450035912</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>372.7281308650643</v>
+        <v>324.7736169655106</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>930.5443398032919</v>
+        <v>882.5554165289857</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>366.4944371246422</v>
+        <v>378.0313986629436</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>1176.222006990299</v>
+        <v>1182.266351411418</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>562.1378872218146</v>
+        <v>562.8640680036318</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>462.3015231532764</v>
+        <v>483.2670199713159</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>373.5576259326741</v>
+        <v>371.0076808702211</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>661.1684488323975</v>
+        <v>563.995974375183</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>431.5272382044594</v>
+        <v>368.0005962146058</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>770.8499890868569</v>
+        <v>581.141518394703</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>800.9874184670837</v>
+        <v>872.6410687078389</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>703.3968374474429</v>
+        <v>786.9652881318831</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>662.4296025701901</v>
+        <v>586.8069225520137</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>395.4809835472237</v>
+        <v>389.6243946208661</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>711.5894438539723</v>
+        <v>818.44915415505</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>623.7297058465927</v>
+        <v>553.3309622888728</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>586.1137784762464</v>
+        <v>590.7315303267503</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>449.4916722737598</v>
+        <v>414.3533860145072</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>540.2500075266828</v>
+        <v>634.0194598061447</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>695.0294459175703</v>
+        <v>747.9745462889873</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>429.5193230081995</v>
+        <v>479.7337448856144</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>525.1354403946717</v>
+        <v>572.9457675181746</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>1048.549422836209</v>
+        <v>1017.064139538606</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>695.4515075902489</v>
+        <v>968.0039275105295</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>977.2790925064486</v>
+        <v>989.1435263193241</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>30816.84211551791</v>
+        <v>30958.80687398659</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>862.2579491909959</v>
+        <v>966.1454205313726</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>1029.428964882769</v>
+        <v>1024.749516996174</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>754.7193227207293</v>
+        <v>763.7214598174653</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>651.9138644613173</v>
+        <v>563.5907648229435</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>674.6000650059706</v>
+        <v>642.3560847845318</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>622.6000021328894</v>
+        <v>648.0686660920478</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>256.2400291324356</v>
+        <v>255.3933662671072</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>599.1763292888395</v>
+        <v>553.6759180146868</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>1359.020104574957</v>
+        <v>1222.703363337749</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>425.1512335512601</v>
+        <v>423.2629893260942</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>32261.63226865972</v>
+        <v>31228.68483675261</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>664.3370605728151</v>
+        <v>581.7916015266364</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>573.5478191722616</v>
+        <v>531.4293518466967</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>379.5307485041195</v>
+        <v>373.617054754033</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>1362.558339701046</v>
+        <v>1351.293605789032</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>635.6204170685475</v>
+        <v>603.6755233021645</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>668.5403365888716</v>
+        <v>580.3991281873234</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>1012.855206105404</v>
+        <v>1003.873369419598</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>439.6526176239696</v>
+        <v>369.2760182310477</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>1340.511014317818</v>
+        <v>1317.880741791357</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>960.3534611513759</v>
+        <v>1018.672781512953</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>696.3283845963762</v>
+        <v>836.8385916749</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>768.2833917899252</v>
+        <v>706.7592294484402</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>658.9578791343263</v>
+        <v>761.1183426653168</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>596.6545419810119</v>
+        <v>561.1028883004473</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>32136.29986847585</v>
+        <v>25191.10374954712</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>643.8900206586953</v>
+        <v>728.134992529512</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>510.7862900084726</v>
+        <v>574.2017474762257</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>885.8501750134413</v>
+        <v>863.138948229125</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>1139.241683114226</v>
+        <v>1073.659792320682</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>354.8777747515095</v>
+        <v>319.3624212379517</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>668.1799473237934</v>
+        <v>765.9801266966173</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>448.0467250298192</v>
+        <v>426.3573619498858</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>1104.960974885541</v>
+        <v>1095.782958343292</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>919.0779572784313</v>
+        <v>945.4468801779677</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1338.059972517884</v>
+        <v>1684.003025781408</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>830.3518712728028</v>
+        <v>722.1424892492296</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>254.2612566252201</v>
+        <v>269.6677590063474</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>613.6413283409454</v>
+        <v>637.3831540121432</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>914.3037205287787</v>
+        <v>961.9634231242215</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>395.3963429756824</v>
+        <v>366.2128233833403</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>942.9539947753038</v>
+        <v>1039.418568131506</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>712.2320886863408</v>
+        <v>785.763371736741</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>485.3343551307702</v>
+        <v>580.7166253151587</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>3203.898565928765</v>
+        <v>2174.085273402801</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>433.98136356108</v>
+        <v>486.1264106355207</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>266.6071148042629</v>
+        <v>297.0036130124722</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>596.8805615901036</v>
+        <v>686.8278243414442</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>450.8662811606495</v>
+        <v>417.0080328074363</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>31796.45954927653</v>
+        <v>30862.16552520366</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>1324.882918795699</v>
+        <v>1317.552404876852</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>542.2460588611187</v>
+        <v>520.9597520824541</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>577.4450521840474</v>
+        <v>576.7942220742461</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>360.8665178690665</v>
+        <v>331.1090986796281</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>724.8238104691035</v>
+        <v>619.4472282186606</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>681.5430976378852</v>
+        <v>646.1992212689019</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>4146.16779208884</v>
+        <v>3500.438522304422</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>657.4705110852216</v>
+        <v>755.0101196209514</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>654.081174039543</v>
+        <v>584.5549197827432</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>390.4950006503088</v>
+        <v>394.6281171377331</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>317.4157238820849</v>
+        <v>516.2126916557025</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>613.6308812725688</v>
+        <v>674.9761640140301</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>566.5587468022734</v>
+        <v>556.0109294402705</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>606.2166024449941</v>
+        <v>569.4917155864275</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>966.3215583063869</v>
+        <v>1072.765385265363</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>566.1116841729896</v>
+        <v>706.9074573938893</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>253.8163092885681</v>
+        <v>250.8211725394073</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>458.7131602566104</v>
+        <v>378.532635672027</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>392.5708246921352</v>
+        <v>377.611865306787</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>941.0343985681789</v>
+        <v>1112.012744325764</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>249.6611556254751</v>
+        <v>249.32767790107</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>17411.66276368995</v>
+        <v>18998.0450948939</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>704.479292574097</v>
+        <v>730.5689844685136</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>682.6848755547496</v>
+        <v>638.2755677814681</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>369.5064804482959</v>
+        <v>383.8049163853562</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>5384.840997958122</v>
+        <v>9059.190041643044</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>996.1958331597984</v>
+        <v>1348.992356835948</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1662.550058651461</v>
+        <v>2067.811493310266</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>31647.27894832517</v>
+        <v>31498.28111457738</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>347.0460950884267</v>
+        <v>378.0451596166596</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>339.269122695527</v>
+        <v>332.4632731113085</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>444.3710956849163</v>
+        <v>428.6713266166142</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>1282.953960917594</v>
+        <v>1205.199860412748</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>544.9155295395686</v>
+        <v>519.3443244670012</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>242.7052013164952</v>
+        <v>277.891111030318</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>673.250855981159</v>
+        <v>551.4069811456252</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>676.6121826917284</v>
+        <v>664.8537862678079</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>509.2257788811473</v>
+        <v>563.0254201139729</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>486.151375074318</v>
+        <v>481.295974376485</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>986.6334957754312</v>
+        <v>955.5041405950537</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>1322.515929636546</v>
+        <v>1307.572150961667</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>371.3828468058104</v>
+        <v>351.8381262705938</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>523.6444260800525</v>
+        <v>553.7417404688367</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>351.7447415680992</v>
+        <v>320.1139685801078</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>560.0901701825857</v>
+        <v>563.4185868806827</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>664.4556627086602</v>
+        <v>696.0117159268775</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>1156.03800496923</v>
+        <v>1048.702315624517</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>432.4706249580396</v>
+        <v>362.6253970041991</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>1078.347706831419</v>
+        <v>1022.488699632117</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>682.1109174169954</v>
+        <v>641.4517376820334</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>476.972053034431</v>
+        <v>521.9178583339105</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>683.0718848704478</v>
+        <v>622.3812900891737</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>487.5866032257139</v>
+        <v>433.8031184573863</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>1040.93500828672</v>
+        <v>872.7156419475278</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>5024.653817520391</v>
+        <v>3768.916584148372</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>1356.349218908485</v>
+        <v>1326.190251463099</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>738.3111090386315</v>
+        <v>501.7467529358531</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>488.383932167289</v>
+        <v>491.4947893628345</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>575.5547314387109</v>
+        <v>593.9517134756836</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>868.2072026279756</v>
+        <v>735.2163327944099</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>673.0463744708205</v>
+        <v>575.3699671020186</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>352.6321233301204</v>
+        <v>613.1527935855536</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>514.8355894474636</v>
+        <v>405.2562019367506</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>425.1637306860942</v>
+        <v>458.9993788792615</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>652.0675586016175</v>
+        <v>603.6902106157489</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>665.7983300492793</v>
+        <v>566.356376531344</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>1526.286315706256</v>
+        <v>1452.706173751331</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>479.3619436732708</v>
+        <v>528.0877211598083</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>904.5498328774389</v>
+        <v>814.5418033338855</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>692.7604332627025</v>
+        <v>787.5073083078061</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>1049.443351739426</v>
+        <v>1001.658794106718</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>485.5219084425075</v>
+        <v>478.0989409759552</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>355.1592518371759</v>
+        <v>396.0954646611585</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>1341.110203308522</v>
+        <v>1325.661772422377</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>375.3659682206159</v>
+        <v>561.973713460021</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>662.2833007714148</v>
+        <v>691.681460694146</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>414.4356168935784</v>
+        <v>360.9736761733614</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>730.881807444871</v>
+        <v>741.5881419131302</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>1859.064458000049</v>
+        <v>2020.09800174076</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>690.0391776247965</v>
+        <v>676.1589585990171</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>336.2977969403931</v>
+        <v>409.9909828243121</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>993.9732386186096</v>
+        <v>1024.192623615895</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>909.0735212943151</v>
+        <v>873.7645160343975</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>663.2910216232086</v>
+        <v>633.5629834842705</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>973.3828825251011</v>
+        <v>983.849803729079</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>354.2076417863317</v>
+        <v>322.2416843714902</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>251.394077645418</v>
+        <v>267.7846468969516</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>342.8558115082516</v>
+        <v>321.3729267612285</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>256.6808822813438</v>
+        <v>271.3729766578548</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>816.0827180291435</v>
+        <v>827.0268428476154</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>1180.532858654895</v>
+        <v>900.4109900176584</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>588.23469209539</v>
+        <v>543.2648878751778</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>495.0059544394188</v>
+        <v>517.3554465028793</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>281.1115432228685</v>
+        <v>292.9876258765481</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>502.5608034336515</v>
+        <v>559.0099915419834</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>487.5097196982279</v>
+        <v>605.9701830103385</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>384.9200636279227</v>
+        <v>372.6907015943629</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>588.6860026705378</v>
+        <v>569.285387437551</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>591.5146367515058</v>
+        <v>626.1985772841737</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>669.781596344936</v>
+        <v>766.4345772862011</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>591.7588258394261</v>
+        <v>594.1408040849625</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>666.1723013250163</v>
+        <v>747.4222763837325</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>715.0597928113174</v>
+        <v>420.5811932316483</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>1520.474377291218</v>
+        <v>2058.537200348882</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>659.6253439148586</v>
+        <v>563.995974375183</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>705.8627686057828</v>
+        <v>824.8842060403</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>887.8918645936876</v>
+        <v>757.2955800530486</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>652.0266969337691</v>
+        <v>658.1699737603367</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>676.4805008377052</v>
+        <v>667.7477063056476</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>437.8583892898918</v>
+        <v>486.7967085656939</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>1106.654688951782</v>
+        <v>1080.262501726786</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>438.688352267458</v>
+        <v>382.6634390459833</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>486.151375074318</v>
+        <v>477.8921686799642</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>512.8468450206373</v>
+        <v>410.6010547696121</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>338.7443143865124</v>
+        <v>329.2318797329135</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>670.0321807692658</v>
+        <v>647.7799383281122</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>648.1373090605933</v>
+        <v>653.8186406733748</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>373.333286002108</v>
+        <v>352.5280854320455</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>568.4221619154642</v>
+        <v>769.2826151908898</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>792.8362031110888</v>
+        <v>753.3366379499195</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>841.3475211394147</v>
+        <v>723.6342561333429</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>1389.66698274183</v>
+        <v>1377.16403956478</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>678.7835391348184</v>
+        <v>717.8254595699079</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>425.4717328465873</v>
+        <v>454.3718347315181</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>744.040650065939</v>
+        <v>751.2148150733665</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>647.1966802288496</v>
+        <v>677.2275195633349</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>865.9811549804789</v>
+        <v>731.5195258379775</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>449.1468255371009</v>
+        <v>364.4380361058651</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>580.8231929912417</v>
+        <v>591.9967130122191</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>374.3607184331698</v>
+        <v>381.6082150474438</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>250.9569475938119</v>
+        <v>248.8053387033243</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>289.868208021056</v>
+        <v>467.8408732779575</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>725.5879791666277</v>
+        <v>620.7562673072372</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>765.4917959113271</v>
+        <v>890.6745637956327</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>401.0929526970944</v>
+        <v>392.0688227193076</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>1309.645055417549</v>
+        <v>1266.727253852854</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>304.947532844084</v>
+        <v>314.4457080641386</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1363.186485025509</v>
+        <v>1328.682164674433</v>
       </c>
     </row>
   </sheetData>
